--- a/LingyuZhou/FA24/shoeData/buyer scoring.xlsx
+++ b/LingyuZhou/FA24/shoeData/buyer scoring.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stata\Indian suppliers\Lingyu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cdocuments\GitHub\factory_order_analysis\labor_audit\LingyuZhou\FA24\shoeData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B161562-F09A-441A-8CCD-690CAF3F249E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22700EE0-7AA9-4CB7-9714-0B1564DB5F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="16395" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>Buyers</t>
   </si>
@@ -97,13 +97,52 @@
   </si>
   <si>
     <t>Crown</t>
+  </si>
+  <si>
+    <t>Scoring Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foerecasting Quality and Visibility into future orders: 3 if Forecasting is good andthere is some implicit or explicit guarantee of future eorders, 2 if forcasting is Ok and no guarantee of future orders, and 1=if forecasting is not good. </t>
+  </si>
+  <si>
+    <t>Price Negotiations and Profit Guarantees: 3, if negotiations are stress free and profit is guaranteed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, if negotiations are based on open costing, but no profit guarantees, and 1 if negotiations are competitive and focused on costs based. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical Specifications; 3 if technical specifications are clear and well designed. 2 or 1 otherwise, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order Placement Process: 3 if largely automated, strictly by a calendar, 2 if based on interactions and 1-if it requires excessive back and forth or if the supplier complained about order placement issues. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead time 2+ if adequate as indicated by the supplier, 1 if worse. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment terms : 3 is lower than average, 2 if averge for the industry, and 1 if higher than industry average. </t>
+  </si>
+  <si>
+    <t>"mbordering"</t>
+  </si>
+  <si>
+    <t>"mbleadtime" (main buyer lead time)</t>
+  </si>
+  <si>
+    <t>"mbpricing"</t>
+  </si>
+  <si>
+    <t>"mbpay"</t>
+  </si>
+  <si>
+    <t>variable names</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,16 +156,35 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -270,12 +328,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -291,56 +382,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,263 +714,471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="15.265625" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" customWidth="1"/>
+    <col min="7" max="7" width="13.59765625" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" customWidth="1"/>
+    <col min="9" max="9" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" ht="30.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="6" t="s">
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="8" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" ht="61.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="19"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="20" t="s">
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="20" t="s">
+      <c r="H5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="22"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="12"/>
-      <c r="B6" s="20">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="20" t="s">
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="22"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="12"/>
-      <c r="B7" s="20">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="20" t="s">
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="20" t="s">
+      <c r="H7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="22"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="20">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="20" t="s">
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="22"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="12"/>
-      <c r="B9" s="20">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="22"/>
+      <c r="I9" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="17"/>
-      <c r="B10" s="20">
+      <c r="A10" s="8"/>
+      <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="20" t="s">
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="22"/>
+      <c r="H10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="F11" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G12" s="31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A17" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A19" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A21" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A23" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A25" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="23">
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:J1"/>

--- a/LingyuZhou/FA24/shoeData/buyer scoring.xlsx
+++ b/LingyuZhou/FA24/shoeData/buyer scoring.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cdocuments\GitHub\factory_order_analysis\labor_audit\LingyuZhou\FA24\shoeData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\labor_audit\LingyuZhou\FA24\shoeData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22700EE0-7AA9-4CB7-9714-0B1564DB5F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179BB601-A6E2-40F6-9342-320CD091F0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="16395" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="20666" windowHeight="12266" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="42">
   <si>
     <t>Buyers</t>
   </si>
@@ -136,17 +137,37 @@
   </si>
   <si>
     <t>variable names</t>
+  </si>
+  <si>
+    <t>buyer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbordering</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbleadtime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbpricing</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbpay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -159,7 +180,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -168,6 +189,13 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -358,67 +386,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -434,9 +402,69 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -716,95 +744,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="F11:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="15.265625" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" customWidth="1"/>
-    <col min="7" max="7" width="13.59765625" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" customWidth="1"/>
-    <col min="9" max="9" width="11.796875" customWidth="1"/>
+    <col min="3" max="3" width="15.234375" customWidth="1"/>
+    <col min="6" max="6" width="12.17578125" customWidth="1"/>
+    <col min="7" max="7" width="13.5859375" customWidth="1"/>
+    <col min="8" max="8" width="12.5859375" customWidth="1"/>
+    <col min="9" max="9" width="11.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="12" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.35" x14ac:dyDescent="0.45">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
+      <c r="J2" s="29"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.35" x14ac:dyDescent="0.45">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="24" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="1:10" ht="61.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="30"/>
+    </row>
+    <row r="4" spans="1:10" ht="46.35" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="6" t="s">
+      <c r="I4" s="28"/>
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="3">
@@ -819,22 +847,22 @@
       <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="28" t="s">
+      <c r="F5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:10" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="15"/>
       <c r="B6" s="3">
         <v>2</v>
       </c>
@@ -847,22 +875,22 @@
       <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="28" t="s">
+      <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:10" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="15"/>
       <c r="B7" s="3">
         <v>3</v>
       </c>
@@ -875,22 +903,22 @@
       <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="28" t="s">
+      <c r="F7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:10" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="15"/>
       <c r="B8" s="3">
         <v>4</v>
       </c>
@@ -903,22 +931,22 @@
       <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="28" t="s">
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:10" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="15"/>
       <c r="B9" s="3">
         <v>5</v>
       </c>
@@ -931,22 +959,22 @@
       <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="28" t="s">
+      <c r="F9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:10" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="16"/>
       <c r="B10" s="3">
         <v>6</v>
       </c>
@@ -959,226 +987,213 @@
       <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="28" t="s">
+      <c r="F10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="F11" s="29" t="s">
+    <row r="11" spans="1:10" ht="15.35" x14ac:dyDescent="0.45">
+      <c r="F11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="G12" s="31" t="s">
+    <row r="12" spans="1:10" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G12" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:10" ht="15.35" x14ac:dyDescent="0.45">
+      <c r="A13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A14" s="22" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.35" x14ac:dyDescent="0.45">
+      <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A16" s="22" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.35" x14ac:dyDescent="0.45">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.35" x14ac:dyDescent="0.45">
+      <c r="A16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A17" s="22" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.35" x14ac:dyDescent="0.45">
+      <c r="A17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A19" s="22" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.35" x14ac:dyDescent="0.45">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.35" x14ac:dyDescent="0.45">
+      <c r="A19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A21" s="22" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.35" x14ac:dyDescent="0.45">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.35" x14ac:dyDescent="0.45">
+      <c r="A21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A23" s="22" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.35" x14ac:dyDescent="0.45">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.35" x14ac:dyDescent="0.45">
+      <c r="A23" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A25" s="22" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.35" x14ac:dyDescent="0.45">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.35" x14ac:dyDescent="0.45">
+      <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:J1"/>
@@ -1189,7 +1204,157 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A22:J22"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A477A44-FA57-477A-A984-BD414767CDE3}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.7" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>